--- a/output/fit_clients/fit_round_47.xlsx
+++ b/output/fit_clients/fit_round_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8780763192.646955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004217940669080909</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.34939338378701</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9495952793607768</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.34939338378701</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5769471973.307055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004692353366823421</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.868787823387241</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9033918166668682</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.868787823387241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4681990772.050047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002950065075275536</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5390702791313</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9612766032727791</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.5390702791313</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4265767778.65452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00452033962372633</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.015203520898563</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8452345849318649</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.015203520898563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7516132838.847395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001966401857804865</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7546686943714631</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.516863578556657</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.051762482475511</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.516863578556657</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7262792264.034994</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001222929633548526</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.550885083086551</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9558638185144296</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.550885083086551</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6400282351.42592</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002820123067718933</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.762796067030469</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9615483174729192</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.762796067030469</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5396873989.892627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004685232928944457</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.722255145434671</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9173650414080958</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.722255145434671</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4123427102.950608</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005440115636212811</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.151488776923935</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9553170792330089</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.151488776923935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3237865515.622718</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001110506016552049</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.839575897690137</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7893689258919971</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.839575897690137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7908747453.945505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001516141486227518</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.946474485378112</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.012025209172079</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.946474485378112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5446086580.072268</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003943215435756973</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4089092360135608</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.747381152073679</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.8458851949672578</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.747381152073679</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6777390484.136829</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003184076807879918</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.353267527395972</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8996568769052906</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.353267527395972</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5507150783.730717</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005709218153993065</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.287376113936807</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9679944355884152</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.287376113936807</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6965556832.62465</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004075821255035462</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.249588006961715</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9062629416859271</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.249588006961715</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6364527426.14784</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00327892599967091</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7510203755316782</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.281630648863733</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.133019901627786</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.281630648863733</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6327579075.938745</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.000990961477372581</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.326931761220869</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9836924403286392</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.326931761220869</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3717681757.361102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.00234982344320775</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.900555784807522</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8987853579453394</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.900555784807522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4401213636.727051</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001090851893618513</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.791397904591721</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8455521178796477</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.791397904591721</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6688121950.288039</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005631501594055044</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.060276949233923</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8537853356678562</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.060276949233923</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4515066984.5207</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003815118504457197</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4891950534703648</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.466197756409307</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7840002409954421</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.466197756409307</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8115604378.154589</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001741190332024807</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.612495840292841</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8592331174864245</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.612495840292841</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7222413705.540201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.00324517721578171</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.469361620250554</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.997042784767047</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.469361620250554</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6357825980.657734</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.00327895756044401</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.642239669370825</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9449452379030518</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.642239669370825</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5265635328.008491</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001274749959434929</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.508834695495922</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7978635718778728</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.508834695495922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8421618232.179345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.004003399304319422</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.05082737234101</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9308325100889036</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.05082737234101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5626661192.243546</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004462070086986763</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.053579010327542</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8944472727492377</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.053579010327542</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5176240513.430332</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001187256513464526</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.467627473231329</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9855276576817943</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.467627473231329</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6909210174.092925</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003443408331829701</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.050731488139832</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.900519545050836</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.050731488139832</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7615628533.161594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003036877172170858</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.100068544876285</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9690658600018204</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.100068544876285</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5291996577.500295</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001368339028468054</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.649487190227795</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9490525267676378</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.649487190227795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6644526679.451316</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002749844518103904</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.456482779296537</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8449340011977612</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.456482779296537</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7941065442.441048</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005513040661883964</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4785901046074794</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.001308148772207</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7372442782391138</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-4.001308148772207</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4886834215.033757</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001939269841681731</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.356322247544382</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.33024814342082</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.356322247544382</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7651948529.185416</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003772921286113249</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.177191298396988</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.015346887648489</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.177191298396988</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4193394386.639994</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004551415375447232</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2771545431475754</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.067797584749244</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6322107991738686</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.067797584749244</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3029305737.762886</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004837425974733472</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.812626797234981</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8895008769694762</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.812626797234981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4241455549.551393</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.00228724570231158</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.556898052222978</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.866758855055346</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.556898052222978</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6993565895.312859</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003373551330367568</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4114734035686046</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.217085020336919</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8185820747705244</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.217085020336919</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6044591305.405378</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001370154354085174</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.383388346030587</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9269263318869391</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.383388346030587</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6698163698.56434</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00451821105758356</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.078369293591324</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.984208764200706</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.078369293591324</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4280880743.135871</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003915100555814957</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.482047935623752</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9347300789970908</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.482047935623752</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6470295342.953955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002286375920364876</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.797349971036551</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9130994359697978</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.797349971036551</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5488733848.276641</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001088841214836594</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.309586063175699</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9463112350128114</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.309586063175699</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8271526400.754779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003576332497910938</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.051898456271028</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8218948243373739</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.051898456271028</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9584063492.890226</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.00252870938211806</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.279558076043144</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.913393376620489</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.279558076043144</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5361893714.904674</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003564543210456593</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.252602928079214</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9714815226697568</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.252602928079214</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5110342318.894838</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004931452477476866</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8143203232982821</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.15889358927019</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.128596712433681</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.15889358927019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8228041901.12569</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003054242592529175</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.447631971467247</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.047056094962236</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.447631971467247</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3501318828.150261</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004726979150947199</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.846796864698541</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9380469817680995</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.846796864698541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7140104715.653873</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002126647859464595</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.63237739523692</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.959402997986446</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9258808301356243</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.959402997986446</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7288795677.003711</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002457912930631452</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.195635958279745</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9244020437710855</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.195635958279745</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6667184056.578613</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004218578211842606</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.814467997464526</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8440059773923458</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.814467997464526</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7973948759.284366</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003229685130995304</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.770113276059861</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8856992210797739</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.770113276059861</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4978363473.483048</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001848348150167404</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.617610587710128</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9350095076614234</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.617610587710128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8048560277.938129</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004164263771255375</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.319892375420328</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8449340011977612</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.319892375420328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6235727453.30068</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001991653728881966</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.529084780248346</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7978635718778728</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.529084780248346</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7839037623.688313</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003995015280832471</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.989102017398289</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8851172883867338</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.989102017398289</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5264165181.978467</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004336411968845397</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7354633955770307</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.058660184075698</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.01377236683647</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.058660184075698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6147435904.241726</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004950293083580298</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.3055979021441141</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.349055359619993</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.6023117946519757</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.349055359619993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5472038667.53765</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003559036276675029</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.608049868054561</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8673531050483925</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.608049868054561</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8629339012.583563</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00434944902844447</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.741238167588222</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8996488617858167</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.741238167588222</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3472977807.206443</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004842235196020249</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.164036244510029</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.933347132478635</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.164036244510029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7213184039.519869</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005461272836003705</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.812991151582239</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.024758744442428</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.812991151582239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5618312070.028851</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003708399846452318</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.398698811038957</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9213117584676266</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.398698811038957</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6891308270.57044</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004663793326903994</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6745496534648959</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.942287383969937</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.022041010407547</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.942287383969937</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5897836097.475362</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003003444036522563</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5004836485700066</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.761204221530682</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6812016263129105</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.761204221530682</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5295868244.405877</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001267244003020064</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.927083028764376</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9923518347199556</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.927083028764376</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7245694009.469193</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003397501800156823</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.021270934316941</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9244098442674795</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.021270934316941</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4090898934.337012</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.0039138214615982</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.535006729877351</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8152459730860455</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.535006729877351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6878413190.120993</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001967264332350411</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.177493887921142</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.056419075739231</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.177493887921142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5375628819.180316</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001272897671242225</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.343780653957218</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9566758042307592</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.343780653957218</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>3970682287.417097</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003615433467645155</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.298554949038881</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8892152568105111</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.298554949038881</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8049537901.106262</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003253462546742998</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.862135687209268</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8424655585528266</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.862135687209268</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6072850057.823771</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001989713495039408</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.04942714768557481</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.868252891874799</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.3966985005093197</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.868252891874799</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>4990275318.703708</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004917704081407252</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.718835154461481</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.018671892130184</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-4.718835154461481</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5763702779.053199</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004204041112104416</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.815688210379797</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8938629682774927</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.815688210379797</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6032582717.370355</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001607241216569022</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.777363606761603</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9722804655778768</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.777363606761603</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5868968193.868923</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002909558744963726</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.191670804176931</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9655775168845424</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.191670804176931</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5134393821.675357</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005081259866077113</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.130753162145923</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.3261640365267211</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.130753162145923</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5457429427.366277</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004807896966124504</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
         <v>9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8602733367402648</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.259695410417834</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.192271678611748</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.259695410417834</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7419459617.399293</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003372276213433926</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.435104160959102</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7959057406301859</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.435104160959102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6242668254.747773</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005046570696054552</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.650448109849259</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9288737113523164</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.650448109849259</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5504640411.712904</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003572637524040585</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.617793427804878</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8900799436846675</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.617793427804878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8876727854.874647</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002698863331068327</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.158075442074665</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9783889336067308</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.158075442074665</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3995655890.177409</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001252865940123366</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.571557511366649</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9572067011729167</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.571557511366649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8115426146.366069</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003592855215539149</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.827841353890293</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8240991874884231</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.827841353890293</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8125629838.719252</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003410026563362663</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.132300964419695</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9352811430805933</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.132300964419695</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6108684466.375643</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003722218810079049</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.956221437919207</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9330594778578025</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.956221437919207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5772845497.721141</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004836463428675433</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.071852740074139</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8434038270628378</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.071852740074139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3724102322.668261</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003453740597219144</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.436006101581794</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.049769415912156</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.436006101581794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7475354636.605172</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001301972795764307</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.911727086002966</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9125349768354796</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.911727086002966</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5327076108.877192</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001329652558137035</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.04121007806269497</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.257327596519263</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-0.1292583380164971</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.257327596519263</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5087457741.601234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001836632801375646</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.296407208165314</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9224374070806342</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.296407208165314</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6704422507.926031</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002833753163985137</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>13</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.728033824215811</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.910823667120314</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.728033824215811</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6881648121.070779</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005452068373274933</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8315625489946806</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.32171145598342</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.147595195718266</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.32171145598342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7983251733.30945</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004591300371561376</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.39859423955408</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8871727026898804</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.39859423955408</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2445109292.572804</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004956723185310394</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.82765689872279</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8856992210797739</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.82765689872279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5474235810.790833</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002767853041857615</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5445923977276156</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.294208822870721</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8350509905703922</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.294208822870721</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7056326896.461134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001467884482058355</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.8755711140671245</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.063715225480931</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.168907420947802</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.063715225480931</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_47.xlsx
+++ b/output/fit_clients/fit_round_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8780763192.646955</v>
+        <v>1961121721.204091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004217940669080909</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12</v>
+        <v>0.07007814430538042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03135106334884032</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>980560850.8528767</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5769471973.307055</v>
+        <v>2269059996.912253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004692353366823421</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+        <v>0.1383281711595006</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0362035114242707</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1134530080.045024</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4681990772.050047</v>
+        <v>4498388014.2609</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002950065075275536</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1498856948884628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03029858769626944</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2249194056.477472</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4265767778.65452</v>
+        <v>3529906515.717007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00452033962372633</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09560262573308485</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03631542822144524</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1764953292.487959</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7516132838.847395</v>
+        <v>2039644877.086448</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001966401857804865</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.1125623985880539</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04663313316485624</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1019822463.693611</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7262792264.034994</v>
+        <v>2735747308.557768</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001222929633548526</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14</v>
+        <v>0.09188335900689561</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03109645173114898</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1367873644.475776</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6400282351.42592</v>
+        <v>2622639708.336912</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002820123067718933</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14</v>
+        <v>0.1509920849308936</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03011182588795913</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1311319872.986125</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5396873989.892627</v>
+        <v>1690582631.026055</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004685232928944457</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1584989985845612</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03254288884322416</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>845291384.9259416</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4123427102.950608</v>
+        <v>5533298340.184856</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005440115636212811</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2083854329720121</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04193166410881615</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2766649310.541684</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3237865515.622718</v>
+        <v>3305976016.284132</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001110506016552049</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1824019060670538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04734550290125428</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1652987972.304816</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7908747453.945505</v>
+        <v>3106109283.669141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001516141486227518</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1848727255490743</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05381010220881058</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>13</v>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1553054669.437088</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5446086580.072268</v>
+        <v>3230163213.827567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003943215435756973</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+        <v>0.08271189032849609</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02157137746534329</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1615081700.815755</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6777390484.136829</v>
+        <v>3773017358.402997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003184076807879918</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1701634562144258</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03188805317679994</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1886508657.536984</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5507150783.730717</v>
+        <v>1412352060.331492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005709218153993065</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.06941256420640271</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04734820288383956</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>706176095.6577229</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6965556832.62465</v>
+        <v>1793836573.965132</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004075821255035462</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15</v>
+        <v>0.08830954170535067</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04266165170366101</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>896918380.7674373</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6364527426.14784</v>
+        <v>3693841718.455108</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00327892599967091</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
+        <v>0.1124151476726986</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04686516136358139</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1846920908.789106</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6327579075.938745</v>
+        <v>2756929853.294608</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000990961477372581</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
+        <v>0.1208485952975895</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02242029582730512</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1378464974.359472</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3717681757.361102</v>
+        <v>915767268.6277905</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00234982344320775</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1521418179100171</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01826770579996222</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>457883642.9235337</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4401213636.727051</v>
+        <v>2573809558.407382</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001090851893618513</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1442061046442131</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02502930698256545</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1286904744.290114</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6688121950.288039</v>
+        <v>2298766971.458333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005631501594055044</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.08357439441894404</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04233878069580416</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1149383492.99741</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4515066984.5207</v>
+        <v>2847191903.426001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003815118504457197</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1112204057916224</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04728886424023926</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1423596022.265011</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8115604378.154589</v>
+        <v>1495552936.203568</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001741190332024807</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+        <v>0.1803202745080404</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04520072103627715</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>747776454.6426876</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7222413705.540201</v>
+        <v>3960074233.701114</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00324517721578171</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.1137965231967041</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03030107962122002</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>12</v>
+      <c r="I24" t="n">
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1980037087.377625</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6357825980.657734</v>
+        <v>1232307887.660734</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00327895756044401</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.07622241711403709</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0281484757779807</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>616153954.22993</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5265635328.008491</v>
+        <v>1405945742.828619</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001274749959434929</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1201622501807423</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02807775440971587</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>702972942.7379371</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8421618232.179345</v>
+        <v>3613550837.616128</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004003399304319422</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1070864032958776</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02254497416193394</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>12</v>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1806775448.012962</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5626661192.243546</v>
+        <v>3070248186.729878</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004462070086986763</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>12</v>
+        <v>0.1395067041341934</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04301893668352775</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1535124110.545827</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5176240513.430332</v>
+        <v>4098248152.4528</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001187256513464526</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1421423491917717</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03078814098071249</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2049124086.163508</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6909210174.092925</v>
+        <v>1528422896.151221</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003443408331829701</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.1020965341648625</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02522914915877486</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>764211431.6947854</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7615628533.161594</v>
+        <v>1378370186.170573</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003036877172170858</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.1003165510998819</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04380826427823945</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>689185002.4398892</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5291996577.500295</v>
+        <v>1452071341.032663</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001368339028468054</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09529394549808451</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03725742959432668</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>726035728.8009474</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6644526679.451316</v>
+        <v>2328556876.430653</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002749844518103904</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
+        <v>0.2064068621925709</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05712405266229436</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1164278490.886984</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7941065442.441048</v>
+        <v>1305304977.346432</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005513040661883964</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>14</v>
+        <v>0.07883955982117241</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02555125265679881</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>652652476.2927475</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4886834215.033757</v>
+        <v>990911259.8472966</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001939269841681731</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
+        <v>0.1039664166180752</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03881060228839218</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>495455650.3607432</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7651948529.185416</v>
+        <v>3161839153.0133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003772921286113249</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14</v>
+        <v>0.1228163981213719</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02527198970037994</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1580919545.295782</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4193394386.639994</v>
+        <v>1822573225.966453</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004551415375447232</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08102482672747981</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03007800341309705</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>911286615.6871926</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3029305737.762886</v>
+        <v>1657873002.568114</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004837425974733472</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1167947170129312</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03929205517317835</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>828936528.0930709</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4241455549.551393</v>
+        <v>1360242007.017959</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00228724570231158</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1836911808841349</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02796361921142072</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>680121095.0357283</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6993565895.312859</v>
+        <v>1495998074.664118</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003373551330367568</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>11</v>
+        <v>0.1449088075953212</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0535254400559451</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>747999004.3876741</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6044591305.405378</v>
+        <v>2512387835.001014</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001370154354085174</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>13</v>
+        <v>0.1121964306760792</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0470261138871888</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1256193941.4749</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6698163698.56434</v>
+        <v>3657451134.081145</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00451821105758356</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.1105718668421278</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03489925816442992</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1828725572.595448</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4280880743.135871</v>
+        <v>2444178747.183902</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003915100555814957</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+        <v>0.1685406811430636</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01718697284054648</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1222089427.719703</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6470295342.953955</v>
+        <v>2066276562.172347</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002286375920364876</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>13</v>
+        <v>0.08724422417666182</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03295525059764749</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1033138400.503414</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5488733848.276641</v>
+        <v>1713367325.344569</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001088841214836594</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1204930815412232</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04835891338283585</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>856683624.5396951</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8271526400.754779</v>
+        <v>5509958951.757174</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003576332497910938</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1314124022239031</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04352373917561425</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2754979531.73631</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>456</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4333338067.711667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1335271308633051</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04730294219051375</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9584063492.890226</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.00252870938211806</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2166669051.773856</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5361893714.904674</v>
+        <v>3524596172.799852</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003564543210456593</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+        <v>0.1064029605506681</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03702509740418761</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1762298148.256215</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5110342318.894838</v>
+        <v>1396957358.324488</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004931452477476866</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1625329376830012</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04449097026509182</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>698478727.0738897</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8228041901.12569</v>
+        <v>2689145987.71078</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003054242592529175</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1718170916433298</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03473854885464301</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1344573075.684484</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3501318828.150261</v>
+        <v>1502133942.984159</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004726979150947199</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1841788876996289</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0381562162522058</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>751066973.9647228</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3598149489.542854</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1307360842818275</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04111425414392792</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7140104715.653873</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.002126647859464595</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1799074824.750026</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7288795677.003711</v>
+        <v>2977031211.277053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002457912930631452</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1527752377349462</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0318515460686</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1488515639.541531</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6667184056.578613</v>
+        <v>4501836494.553747</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004218578211842606</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1177313631371057</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04691239255513723</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>11</v>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2250918350.58334</v>
       </c>
     </row>
     <row r="55">
@@ -1967,19 +2295,25 @@
         <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7973948759.284366</v>
+        <v>4611963572.762075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003229685130995304</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>15</v>
+        <v>0.1891345532510529</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02821451578556541</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2305981788.136007</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4978363473.483048</v>
+        <v>1183725602.09584</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001848348150167404</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1261702313558663</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0415874276428758</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>591862889.9940956</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8048560277.938129</v>
+        <v>3959198734.419769</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004164263771255375</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1160350916850755</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02331336537393908</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1979599452.015628</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6235727453.30068</v>
+        <v>1836991498.270973</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001991653728881966</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.1249962503673719</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03903115017971681</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>918495749.4159378</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7839037623.688313</v>
+        <v>3877913331.457028</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003995015280832471</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
+        <v>0.09123057876633935</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03524378504523532</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1938956647.426915</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5264165181.978467</v>
+        <v>3074300232.804123</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004336411968845397</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1299481960481123</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02308990180400248</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1537150194.399636</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6147435904.241726</v>
+        <v>3223881524.456522</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004950293083580298</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1766759628300565</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03134616280297368</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>10</v>
+      <c r="I61" t="n">
+        <v>15</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1611940721.431754</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5472038667.53765</v>
+        <v>1954701171.387253</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003559036276675029</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
+        <v>0.1571825018351511</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03439539386078953</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>977350636.831624</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8629339012.583563</v>
+        <v>3761176826.472769</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00434944902844447</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.06605769892070006</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03550876574118741</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1880588486.143497</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3472977807.206443</v>
+        <v>4351645200.576531</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004842235196020249</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1829748306484706</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02971733812889045</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2175822660.733141</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7213184039.519869</v>
+        <v>5862930805.364703</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005461272836003705</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1181421438162711</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.025744995958231</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2931465309.947795</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5618312070.028851</v>
+        <v>4616713595.441841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003708399846452318</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>9</v>
+        <v>0.1570027341579232</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05112312457648385</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2308356804.196654</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6891308270.57044</v>
+        <v>2517986645.958124</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004663793326903994</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.09848039014542818</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04307939652609731</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1258993381.91909</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5897836097.475362</v>
+        <v>4695158802.025038</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003003444036522563</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
+        <v>0.1195667518970174</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03317402786043749</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2347579438.787462</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5295868244.405877</v>
+        <v>2184842434.307507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001267244003020064</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1256089918921109</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04684843966948378</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1092421245.877713</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7245694009.469193</v>
+        <v>2533596595.64858</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003397501800156823</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>12</v>
+        <v>0.100617619759074</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03950809415384065</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1266798244.337773</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4090898934.337012</v>
+        <v>5058725479.736726</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0039138214615982</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1651404047991591</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03253813902251852</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2529362849.785542</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6878413190.120993</v>
+        <v>2278047465.391966</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001967264332350411</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.0661221406898313</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04230391131582129</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1139023634.056993</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5375628819.180316</v>
+        <v>3553819784.989633</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001272897671242225</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.09658147446944444</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03951090754394036</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1776909837.660442</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3970682287.417097</v>
+        <v>2991589964.840328</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003615433467645155</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1191662724360442</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02431203522806608</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1495795048.393856</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8049537901.106262</v>
+        <v>2059400994.206118</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003253462546742998</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
+        <v>0.1633928269477669</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02936554177729327</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1029700455.541449</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6072850057.823771</v>
+        <v>3243420935.763992</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001989713495039408</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.0862734706882175</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02606134102096533</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1621710420.730029</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>4990275318.703708</v>
+        <v>1461127507.122473</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004917704081407252</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>16</v>
+        <v>0.1227596318589192</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02707796322431487</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>730563735.3195157</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5763702779.053199</v>
+        <v>3572360894.877435</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004204041112104416</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.1274448316716777</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05218617290437622</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1786180443.646333</v>
       </c>
     </row>
     <row r="79">
@@ -2639,19 +3111,25 @@
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6032582717.370355</v>
+        <v>1409042626.296745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001607241216569022</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1461251585206097</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03820600949770717</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>704521331.3009336</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5868968193.868923</v>
+        <v>4755794886.086742</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002909558744963726</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14</v>
+        <v>0.1012186715743151</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02912031787291008</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2377897479.955589</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5134393821.675357</v>
+        <v>4982905037.795977</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005081259866077113</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
+        <v>0.09733797748971265</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03128912399489241</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2491452518.50423</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5457429427.366277</v>
+        <v>5622554641.557931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004807896966124504</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1424498160706818</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02316900925479019</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2811277269.813221</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7419459617.399293</v>
+        <v>2174336907.8783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003372276213433926</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1585533907425908</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04318766910916118</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1087168460.810177</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6242668254.747773</v>
+        <v>1633556835.009982</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005046570696054552</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.07542687479526132</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.041989000033373</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>816778476.0362221</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5504640411.712904</v>
+        <v>2627122358.030643</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003572637524040585</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1246084254837099</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04332601130921471</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1313561197.857716</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8876727854.874647</v>
+        <v>2427157531.811456</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002698863331068327</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1231649691390368</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02239700135706036</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1213578852.757746</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3995655890.177409</v>
+        <v>1237394658.593998</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001252865940123366</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1494516550492237</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04359307244621294</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>618697394.3204105</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8115426146.366069</v>
+        <v>3086618670.622209</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003592855215539149</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1289097765262623</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02770506909043337</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1543309374.160937</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8125629838.719252</v>
+        <v>2897305604.183485</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003410026563362663</v>
-      </c>
-      <c r="G89" t="b">
+        <v>0.1389027124021098</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03061419575504938</v>
+      </c>
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="H89" t="n">
-        <v>9</v>
+      <c r="I89" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1448652847.588349</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6108684466.375643</v>
+        <v>1387341338.860201</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003722218810079049</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.09090472381844154</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04989716999790483</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>693670627.4276555</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5772845497.721141</v>
+        <v>1787280579.332349</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004836463428675433</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>14</v>
+        <v>0.1769221461280274</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05354813065285367</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>893640290.1378462</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3724102322.668261</v>
+        <v>2007786894.36754</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003453740597219144</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08269672123956605</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0401837069660559</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1003893393.783216</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7475354636.605172</v>
+        <v>3047922603.700129</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001301972795764307</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1285089982034959</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0520123784063936</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1523961363.88922</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5327076108.877192</v>
+        <v>1620988340.531208</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001329652558137035</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1607640004030805</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04191834151684847</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>810494119.1345129</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5087457741.601234</v>
+        <v>3022938683.810759</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001836632801375646</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>12</v>
+        <v>0.09093085947016828</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03327793056717326</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1511469339.844475</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6704422507.926031</v>
+        <v>1792150218.713997</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002833753163985137</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>13</v>
+        <v>0.118129260431689</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03112050830705605</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>896075118.3831183</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6881648121.070779</v>
+        <v>3872684432.156506</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005452068373274933</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>12</v>
+        <v>0.1597582298715041</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02644137528797945</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1936342262.077768</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7983251733.30945</v>
+        <v>3638280505.411334</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004591300371561376</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>18</v>
+        <v>0.08276240579444162</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02649442397942501</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1819140280.546899</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2445109292.572804</v>
+        <v>2728047651.728318</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004956723185310394</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1295613515322253</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02906373287476079</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1364023791.964132</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5474235810.790833</v>
+        <v>3130183586.356632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002767853041857615</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1407881722304566</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01917066321131334</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1565091794.287028</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7056326896.461134</v>
+        <v>3275684720.738305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001467884482058355</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15</v>
+        <v>0.1477182565309352</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04938185280514538</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1637842485.748335</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_47.xlsx
+++ b/output/fit_clients/fit_round_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1961121721.204091</v>
+        <v>2145268380.940901</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07007814430538042</v>
+        <v>0.0763255363120956</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03135106334884032</v>
+        <v>0.03025501136369207</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>980560850.8528767</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2269059996.912253</v>
+        <v>2620601593.40522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1383281711595006</v>
+        <v>0.1512697012646457</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0362035114242707</v>
+        <v>0.03379429133512592</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1134530080.045024</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4498388014.2609</v>
+        <v>4698813271.49922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1498856948884628</v>
+        <v>0.1476943474255429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03029858769626944</v>
+        <v>0.02669634075927052</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2249194056.477472</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3529906515.717007</v>
+        <v>3737354273.53213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09560262573308485</v>
+        <v>0.1021953012322385</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03631542822144524</v>
+        <v>0.03302250947793055</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1764953292.487959</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2039644877.086448</v>
+        <v>2060732047.175392</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1125623985880539</v>
+        <v>0.133327238426952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04663313316485624</v>
+        <v>0.04129218676955815</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1019822463.693611</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2735747308.557768</v>
+        <v>2164078295.276096</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09188335900689561</v>
+        <v>0.07006557838987162</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03109645173114898</v>
+        <v>0.03335396288228515</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1367873644.475776</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2622639708.336912</v>
+        <v>3277083289.701053</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1509920849308936</v>
+        <v>0.1388969962299832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03011182588795913</v>
+        <v>0.02323344435456107</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1311319872.986125</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1690582631.026055</v>
+        <v>1847049873.844196</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1584989985845612</v>
+        <v>0.1954362337501748</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03254288884322416</v>
+        <v>0.03655414951240375</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>845291384.9259416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5533298340.184856</v>
+        <v>4661400439.46663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2083854329720121</v>
+        <v>0.1416584777611873</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04193166410881615</v>
+        <v>0.04420183810330644</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2766649310.541684</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3305976016.284132</v>
+        <v>2689993824.648449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1824019060670538</v>
+        <v>0.1724954363442109</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04734550290125428</v>
+        <v>0.04511352244936101</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1652987972.304816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3106109283.669141</v>
+        <v>2714758037.772249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1848727255490743</v>
+        <v>0.1248583037509453</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05381010220881058</v>
+        <v>0.05274566714862478</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1553054669.437088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3230163213.827567</v>
+        <v>4448367979.22533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08271189032849609</v>
+        <v>0.08475984259419352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02157137746534329</v>
+        <v>0.0189564168771277</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1615081700.815755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3773017358.402997</v>
+        <v>2906814182.95873</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1701634562144258</v>
+        <v>0.1248814875243887</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03188805317679994</v>
+        <v>0.04078635673881515</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1886508657.536984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1412352060.331492</v>
+        <v>1780644554.607888</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06941256420640271</v>
+        <v>0.0755323458742585</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04734820288383956</v>
+        <v>0.03605689764055417</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>706176095.6577229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1793836573.965132</v>
+        <v>2233745193.900361</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08830954170535067</v>
+        <v>0.1005787142608621</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04266165170366101</v>
+        <v>0.04845826730838075</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>896918380.7674373</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3693841718.455108</v>
+        <v>3461419634.626761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1124151476726986</v>
+        <v>0.1403430680289042</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04686516136358139</v>
+        <v>0.04471441050789648</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1846920908.789106</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2756929853.294608</v>
+        <v>3392001115.11266</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1208485952975895</v>
+        <v>0.1251610049657544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02242029582730512</v>
+        <v>0.02263620221744226</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1378464974.359472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>915767268.6277905</v>
+        <v>1117840326.908116</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1521418179100171</v>
+        <v>0.1422739731752323</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01826770579996222</v>
+        <v>0.02444732136773199</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>457883642.9235337</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2573809558.407382</v>
+        <v>2764197389.057086</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442061046442131</v>
+        <v>0.1173019819454897</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02502930698256545</v>
+        <v>0.02866403477075574</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1286904744.290114</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2298766971.458333</v>
+        <v>2073461072.022287</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08357439441894404</v>
+        <v>0.09740380148247603</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04233878069580416</v>
+        <v>0.03681539762687889</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1149383492.99741</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2847191903.426001</v>
+        <v>2669092953.629076</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112204057916224</v>
+        <v>0.1000650639029523</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04728886424023926</v>
+        <v>0.04661253449265919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1423596022.265011</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1495552936.203568</v>
+        <v>1468870097.434179</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1803202745080404</v>
+        <v>0.132319169494761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04520072103627715</v>
+        <v>0.05145363608971578</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>747776454.6426876</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3960074233.701114</v>
+        <v>2869679849.755465</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1137965231967041</v>
+        <v>0.09207545608119644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03030107962122002</v>
+        <v>0.02747854803127546</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1980037087.377625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1232307887.660734</v>
+        <v>977187769.9260921</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07622241711403709</v>
+        <v>0.07729736328655781</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0281484757779807</v>
+        <v>0.02000089543137355</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>616153954.22993</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1405945742.828619</v>
+        <v>1436620177.478109</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1201622501807423</v>
+        <v>0.1012352984308924</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02807775440971587</v>
+        <v>0.0284561111568714</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>702972942.7379371</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3613550837.616128</v>
+        <v>3004649203.766195</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1070864032958776</v>
+        <v>0.1129999065395422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02254497416193394</v>
+        <v>0.02561820608436085</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1806775448.012962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3070248186.729878</v>
+        <v>2351234708.321411</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1395067041341934</v>
+        <v>0.1205135975916187</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04301893668352775</v>
+        <v>0.05014800462858548</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1535124110.545827</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4098248152.4528</v>
+        <v>5343946163.263042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1421423491917717</v>
+        <v>0.1234752244704061</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03078814098071249</v>
+        <v>0.03700191973529476</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>21</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2049124086.163508</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1528422896.151221</v>
+        <v>2004130558.504415</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1020965341648625</v>
+        <v>0.1253744744410674</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02522914915877486</v>
+        <v>0.03540279090055052</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>764211431.6947854</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1378370186.170573</v>
+        <v>1302756373.000993</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1003165510998819</v>
+        <v>0.09346657513820379</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04380826427823945</v>
+        <v>0.04702864293372393</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>689185002.4398892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1452071341.032663</v>
+        <v>1655968002.99846</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09529394549808451</v>
+        <v>0.1138877351627899</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03725742959432668</v>
+        <v>0.03280340493474539</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>726035728.8009474</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2328556876.430653</v>
+        <v>2853812059.571933</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2064068621925709</v>
+        <v>0.1669665076107202</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05712405266229436</v>
+        <v>0.05333794402336844</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1164278490.886984</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1305304977.346432</v>
+        <v>1425827585.057947</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07883955982117241</v>
+        <v>0.115758592482082</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02555125265679881</v>
+        <v>0.02240432369749036</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>652652476.2927475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>990911259.8472966</v>
+        <v>898492644.811139</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1039664166180752</v>
+        <v>0.08933911246453516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03881060228839218</v>
+        <v>0.03463548257842194</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>495455650.3607432</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3161839153.0133</v>
+        <v>2990858721.682787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1228163981213719</v>
+        <v>0.1149713020155704</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02527198970037994</v>
+        <v>0.02893360000514374</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1580919545.295782</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1822573225.966453</v>
+        <v>2357120919.319157</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08102482672747981</v>
+        <v>0.07196310779125917</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03007800341309705</v>
+        <v>0.0401699205188734</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>911286615.6871926</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1657873002.568114</v>
+        <v>1974800642.665669</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1167947170129312</v>
+        <v>0.08414412087736944</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03929205517317835</v>
+        <v>0.02648923023922393</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>828936528.0930709</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1360242007.017959</v>
+        <v>1739395010.018188</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1836911808841349</v>
+        <v>0.116774698801319</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02796361921142072</v>
+        <v>0.03049921016731104</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>680121095.0357283</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1495998074.664118</v>
+        <v>1330727277.26284</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1449088075953212</v>
+        <v>0.1360470886385671</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0535254400559451</v>
+        <v>0.0385632695674218</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>747999004.3876741</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2512387835.001014</v>
+        <v>2365580200.642964</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1121964306760792</v>
+        <v>0.1215661424585379</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0470261138871888</v>
+        <v>0.0409295113294895</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1256193941.4749</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3657451134.081145</v>
+        <v>3788284555.492577</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1105718668421278</v>
+        <v>0.1142659129495039</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03489925816442992</v>
+        <v>0.04632398104373054</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1828725572.595448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2444178747.183902</v>
+        <v>2697858103.266569</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685406811430636</v>
+        <v>0.1870556036627048</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01718697284054648</v>
+        <v>0.02225856287951253</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1222089427.719703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2066276562.172347</v>
+        <v>2249206389.172122</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08724422417666182</v>
+        <v>0.09464187493283355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03295525059764749</v>
+        <v>0.0242833054506487</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1033138400.503414</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1713367325.344569</v>
+        <v>1786244008.987852</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1204930815412232</v>
+        <v>0.1940940544815113</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04835891338283585</v>
+        <v>0.04215951290099385</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>856683624.5396951</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5509958951.757174</v>
+        <v>5037055304.446462</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1314124022239031</v>
+        <v>0.1320813661554422</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04352373917561425</v>
+        <v>0.05269994779972607</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2754979531.73631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4333338067.711667</v>
+        <v>4232107765.198637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1335271308633051</v>
+        <v>0.1864728429666309</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04730294219051375</v>
+        <v>0.03607896465488703</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2166669051.773856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3524596172.799852</v>
+        <v>3628646597.364649</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1064029605506681</v>
+        <v>0.07085520154311849</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03702509740418761</v>
+        <v>0.03662082672752267</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1762298148.256215</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1396957358.324488</v>
+        <v>1605929826.195333</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1625329376830012</v>
+        <v>0.183074252295591</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04449097026509182</v>
+        <v>0.03661228679587081</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>698478727.0738897</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2689145987.71078</v>
+        <v>2659142511.625111</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1718170916433298</v>
+        <v>0.169624990425363</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03473854885464301</v>
+        <v>0.03636207390854797</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1344573075.684484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1502133942.984159</v>
+        <v>1329600907.97345</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1841788876996289</v>
+        <v>0.1810696759374565</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0381562162522058</v>
+        <v>0.04002967640496133</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>751066973.9647228</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3598149489.542854</v>
+        <v>3848160245.950092</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1307360842818275</v>
+        <v>0.111005158408061</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04111425414392792</v>
+        <v>0.04841515082058056</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1799074824.750026</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2977031211.277053</v>
+        <v>2496028408.547348</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1527752377349462</v>
+        <v>0.1436180940246131</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0318515460686</v>
+        <v>0.0231601612118751</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1488515639.541531</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4501836494.553747</v>
+        <v>3264835425.082372</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1177313631371057</v>
+        <v>0.1253215700273773</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04691239255513723</v>
+        <v>0.03704436284899885</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2250918350.58334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4611963572.762075</v>
+        <v>3957753561.561429</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1891345532510529</v>
+        <v>0.1431630326503251</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02821451578556541</v>
+        <v>0.03163191494600122</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2305981788.136007</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1183725602.09584</v>
+        <v>1844614605.702512</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261702313558663</v>
+        <v>0.1071401532955704</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0415874276428758</v>
+        <v>0.04410217758791922</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>591862889.9940956</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3959198734.419769</v>
+        <v>3426051431.759685</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1160350916850755</v>
+        <v>0.162496881856786</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02331336537393908</v>
+        <v>0.02231150551657397</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1979599452.015628</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1836991498.270973</v>
+        <v>1675514928.212545</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1249962503673719</v>
+        <v>0.2026802826086885</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03903115017971681</v>
+        <v>0.03609096343127017</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>918495749.4159378</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3877913331.457028</v>
+        <v>3474207623.610937</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09123057876633935</v>
+        <v>0.1077790598136556</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03524378504523532</v>
+        <v>0.03235764895285274</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1938956647.426915</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3074300232.804123</v>
+        <v>2971971230.559342</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1299481960481123</v>
+        <v>0.1630166942057752</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02308990180400248</v>
+        <v>0.03166134484635831</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1537150194.399636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3223881524.456522</v>
+        <v>2829234446.956946</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1766759628300565</v>
+        <v>0.1514699473531315</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03134616280297368</v>
+        <v>0.02770496965171486</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1611940721.431754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1954701171.387253</v>
+        <v>1847333729.836583</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1571825018351511</v>
+        <v>0.1368439809638635</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03439539386078953</v>
+        <v>0.04620399077288784</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>977350636.831624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3761176826.472769</v>
+        <v>4082611543.376761</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06605769892070006</v>
+        <v>0.09751567219302229</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03550876574118741</v>
+        <v>0.04018091143366902</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1880588486.143497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4351645200.576531</v>
+        <v>4159676171.228356</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1829748306484706</v>
+        <v>0.1880079230224851</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02971733812889045</v>
+        <v>0.03510484672024339</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2175822660.733141</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5862930805.364703</v>
+        <v>5631656347.145658</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1181421438162711</v>
+        <v>0.1272036997716264</v>
       </c>
       <c r="G65" t="n">
-        <v>0.025744995958231</v>
+        <v>0.03007222621749453</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2931465309.947795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4616713595.441841</v>
+        <v>4205512133.383419</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1570027341579232</v>
+        <v>0.1536087242340797</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05112312457648385</v>
+        <v>0.03469462371336518</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2308356804.196654</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2517986645.958124</v>
+        <v>2444289692.005705</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09848039014542818</v>
+        <v>0.08043093534590431</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04307939652609731</v>
+        <v>0.05044047241244402</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1258993381.91909</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4695158802.025038</v>
+        <v>5196381648.444495</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1195667518970174</v>
+        <v>0.1019125659728707</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03317402786043749</v>
+        <v>0.04666329545152516</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2347579438.787462</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2184842434.307507</v>
+        <v>1505544874.46394</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1256089918921109</v>
+        <v>0.1765753200125569</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04684843966948378</v>
+        <v>0.03775861286163185</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1092421245.877713</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2533596595.64858</v>
+        <v>3378497370.87556</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100617619759074</v>
+        <v>0.08870482380771098</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03950809415384065</v>
+        <v>0.03203760336911226</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1266798244.337773</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5058725479.736726</v>
+        <v>5325605341.215235</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1651404047991591</v>
+        <v>0.1724984603977676</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03253813902251852</v>
+        <v>0.03247132740888773</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>17</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2529362849.785542</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2278047465.391966</v>
+        <v>1899534657.254645</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0661221406898313</v>
+        <v>0.09642892671477891</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04230391131582129</v>
+        <v>0.04032304957711907</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1139023634.056993</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3553819784.989633</v>
+        <v>2674643291.917066</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09658147446944444</v>
+        <v>0.08430358196875522</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03951090754394036</v>
+        <v>0.04693918300111916</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>18</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1776909837.660442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2991589964.840328</v>
+        <v>2972100371.926812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1191662724360442</v>
+        <v>0.1128494301047835</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02431203522806608</v>
+        <v>0.03228255967818238</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1495795048.393856</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2059400994.206118</v>
+        <v>1679843488.215389</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1633928269477669</v>
+        <v>0.1069552139226353</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02936554177729327</v>
+        <v>0.03448873359003651</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1029700455.541449</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3243420935.763992</v>
+        <v>5031038941.661293</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0862734706882175</v>
+        <v>0.1184270462788524</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02606134102096533</v>
+        <v>0.02480774237014397</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1621710420.730029</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1461127507.122473</v>
+        <v>1417334417.513806</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1227596318589192</v>
+        <v>0.1566201854147934</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02707796322431487</v>
+        <v>0.02698401256339109</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>730563735.3195157</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3572360894.877435</v>
+        <v>3500797955.327858</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1274448316716777</v>
+        <v>0.09963826160627468</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05218617290437622</v>
+        <v>0.05455092380210744</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1786180443.646333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1409042626.296745</v>
+        <v>1645820485.249633</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1461251585206097</v>
+        <v>0.139893736993234</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03820600949770717</v>
+        <v>0.03434036772173102</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>704521331.3009336</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4755794886.086742</v>
+        <v>4570353218.367522</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1012186715743151</v>
+        <v>0.1029386167036336</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02912031787291008</v>
+        <v>0.03607875029604889</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2377897479.955589</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4982905037.795977</v>
+        <v>4411266481.635653</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09733797748971265</v>
+        <v>0.1083796293004232</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03128912399489241</v>
+        <v>0.02597662961707223</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2491452518.50423</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5622554641.557931</v>
+        <v>4546389865.511965</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1424498160706818</v>
+        <v>0.1582113052371382</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02316900925479019</v>
+        <v>0.01849034584205352</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2811277269.813221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2174336907.8783</v>
+        <v>2018460470.274682</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1585533907425908</v>
+        <v>0.1568457138283155</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04318766910916118</v>
+        <v>0.03238141355486102</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1087168460.810177</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1633556835.009982</v>
+        <v>2040709940.321276</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07542687479526132</v>
+        <v>0.114037138299903</v>
       </c>
       <c r="G84" t="n">
-        <v>0.041989000033373</v>
+        <v>0.03940704360994871</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>816778476.0362221</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2627122358.030643</v>
+        <v>2626202856.017182</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1246084254837099</v>
+        <v>0.1321533945988893</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04332601130921471</v>
+        <v>0.04404641033583657</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1313561197.857716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2427157531.811456</v>
+        <v>2355061186.127444</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1231649691390368</v>
+        <v>0.1359366133281863</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02239700135706036</v>
+        <v>0.01920451349547672</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1213578852.757746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1237394658.593998</v>
+        <v>1027654389.019861</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1494516550492237</v>
+        <v>0.1493650621780861</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04359307244621294</v>
+        <v>0.04164555532142668</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>618697394.3204105</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3086618670.622209</v>
+        <v>3148734563.982195</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1289097765262623</v>
+        <v>0.172398065375025</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02770506909043337</v>
+        <v>0.03462224652637708</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1543309374.160937</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2897305604.183485</v>
+        <v>2871249412.1666</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389027124021098</v>
+        <v>0.1483827505840426</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03061419575504938</v>
+        <v>0.02700259200058474</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>16</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1448652847.588349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1387341338.860201</v>
+        <v>1465376964.76456</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09090472381844154</v>
+        <v>0.1227390355661764</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04989716999790483</v>
+        <v>0.03879828744348748</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>693670627.4276555</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1787280579.332349</v>
+        <v>1382571138.116147</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1769221461280274</v>
+        <v>0.1275195930152601</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05354813065285367</v>
+        <v>0.03886670481374039</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>893640290.1378462</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2007786894.36754</v>
+        <v>2008162078.238697</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08269672123956605</v>
+        <v>0.1001348372259675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0401837069660559</v>
+        <v>0.03641353553453609</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1003893393.783216</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3047922603.700129</v>
+        <v>4499108945.984938</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1285089982034959</v>
+        <v>0.1175649080701383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0520123784063936</v>
+        <v>0.05130660601356211</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1523961363.88922</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620988340.531208</v>
+        <v>1918949472.157691</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1607640004030805</v>
+        <v>0.1298375110666623</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04191834151684847</v>
+        <v>0.03073808955698929</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>810494119.1345129</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3022938683.810759</v>
+        <v>2273986857.351674</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09093085947016828</v>
+        <v>0.1026995046940398</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03327793056717326</v>
+        <v>0.03195781240313014</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1511469339.844475</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1792150218.713997</v>
+        <v>2148644540.006935</v>
       </c>
       <c r="F96" t="n">
-        <v>0.118129260431689</v>
+        <v>0.1009084268430251</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03112050830705605</v>
+        <v>0.03978943210460083</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>896075118.3831183</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3872684432.156506</v>
+        <v>5151258015.111841</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1597582298715041</v>
+        <v>0.1268544440607828</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02644137528797945</v>
+        <v>0.02415836810816589</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1936342262.077768</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3638280505.411334</v>
+        <v>2549078201.943204</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08276240579444162</v>
+        <v>0.1007595529164685</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02649442397942501</v>
+        <v>0.02690090989708548</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1819140280.546899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2728047651.728318</v>
+        <v>2067290726.277666</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1295613515322253</v>
+        <v>0.1159697278638514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02906373287476079</v>
+        <v>0.03152657356552007</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1364023791.964132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3130183586.356632</v>
+        <v>3144694981.694415</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1407881722304566</v>
+        <v>0.1188325233432572</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01917066321131334</v>
+        <v>0.01792183724518845</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1565091794.287028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3275684720.738305</v>
+        <v>3317087356.562951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1477182565309352</v>
+        <v>0.2051238681561066</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04938185280514538</v>
+        <v>0.04413154393896524</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1637842485.748335</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_47.xlsx
+++ b/output/fit_clients/fit_round_47.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2145268380.940901</v>
+        <v>2436228896.235429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0763255363120956</v>
+        <v>0.1108569897889034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03025501136369207</v>
+        <v>0.03855605592929206</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620601593.40522</v>
+        <v>1631247848.296103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1512697012646457</v>
+        <v>0.1263040659701563</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03379429133512592</v>
+        <v>0.04208000510327983</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4698813271.49922</v>
+        <v>5020410218.568992</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1476943474255429</v>
+        <v>0.146777715001721</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02669634075927052</v>
+        <v>0.02568148058572045</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3737354273.53213</v>
+        <v>3875178872.318382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021953012322385</v>
+        <v>0.09907013163487786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03302250947793055</v>
+        <v>0.03075444619610524</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2060732047.175392</v>
+        <v>2846920014.839011</v>
       </c>
       <c r="F6" t="n">
-        <v>0.133327238426952</v>
+        <v>0.1376484332705932</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04129218676955815</v>
+        <v>0.04015853440018073</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2164078295.276096</v>
+        <v>2355616224.09397</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07006557838987162</v>
+        <v>0.06465220966646174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03335396288228515</v>
+        <v>0.03210986472397437</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3277083289.701053</v>
+        <v>2681071727.721304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1388969962299832</v>
+        <v>0.1571774907812533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02323344435456107</v>
+        <v>0.03347214139815323</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1847049873.844196</v>
+        <v>1458332329.998071</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1954362337501748</v>
+        <v>0.159562938143241</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03655414951240375</v>
+        <v>0.02260491186083485</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4661400439.46663</v>
+        <v>4449072903.917602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1416584777611873</v>
+        <v>0.2109208612939066</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04420183810330644</v>
+        <v>0.03494052352478051</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2689993824.648449</v>
+        <v>2880889449.763086</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724954363442109</v>
+        <v>0.1277482510979431</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04511352244936101</v>
+        <v>0.03226819923924436</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2714758037.772249</v>
+        <v>2932391060.47017</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1248583037509453</v>
+        <v>0.1393774812574347</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05274566714862478</v>
+        <v>0.03369907681471736</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4448367979.22533</v>
+        <v>4581378471.393099</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08475984259419352</v>
+        <v>0.07748651972942158</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0189564168771277</v>
+        <v>0.02985204386725839</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2906814182.95873</v>
+        <v>3870983465.276162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1248814875243887</v>
+        <v>0.1844339336186012</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04078635673881515</v>
+        <v>0.02805012648888432</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780644554.607888</v>
+        <v>1541436750.226338</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0755323458742585</v>
+        <v>0.1074812396551705</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03605689764055417</v>
+        <v>0.03753580719732172</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2233745193.900361</v>
+        <v>2034750582.540686</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1005787142608621</v>
+        <v>0.08220694123531175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04845826730838075</v>
+        <v>0.04812344744334995</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3461419634.626761</v>
+        <v>5286655762.796653</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1403430680289042</v>
+        <v>0.118489002720177</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04471441050789648</v>
+        <v>0.05228746577332058</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3392001115.11266</v>
+        <v>2769680992.349159</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251610049657544</v>
+        <v>0.1807061445554897</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02263620221744226</v>
+        <v>0.02284914230779709</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1117840326.908116</v>
+        <v>1376921429.711207</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1422739731752323</v>
+        <v>0.1869378384167201</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02444732136773199</v>
+        <v>0.01907768408417598</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2764197389.057086</v>
+        <v>1739625136.385025</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173019819454897</v>
+        <v>0.1093375605801022</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02866403477075574</v>
+        <v>0.02559342911313748</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2073461072.022287</v>
+        <v>2280140188.454916</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09740380148247603</v>
+        <v>0.06426417980046463</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03681539762687889</v>
+        <v>0.03615534998654368</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2669092953.629076</v>
+        <v>2432076890.787958</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1000650639029523</v>
+        <v>0.1119905953535135</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04661253449265919</v>
+        <v>0.04675206274784873</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1468870097.434179</v>
+        <v>1460444550.638894</v>
       </c>
       <c r="F23" t="n">
-        <v>0.132319169494761</v>
+        <v>0.1644105584538976</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05145363608971578</v>
+        <v>0.04374304715221093</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2869679849.755465</v>
+        <v>3542236333.20637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09207545608119644</v>
+        <v>0.1377115368355658</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02747854803127546</v>
+        <v>0.02340859883569573</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>977187769.9260921</v>
+        <v>1316727396.140586</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07729736328655781</v>
+        <v>0.1040713712874291</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02000089543137355</v>
+        <v>0.02264603587720663</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1436620177.478109</v>
+        <v>983091857.3434496</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1012352984308924</v>
+        <v>0.1074639050460645</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0284561111568714</v>
+        <v>0.03610187775758012</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3004649203.766195</v>
+        <v>4373535918.327508</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1129999065395422</v>
+        <v>0.1562075970694612</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02561820608436085</v>
+        <v>0.02718056042787571</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2351234708.321411</v>
+        <v>3213054556.585763</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1205135975916187</v>
+        <v>0.1022434233521392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05014800462858548</v>
+        <v>0.03523599005098509</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5343946163.263042</v>
+        <v>5048843071.499064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1234752244704061</v>
+        <v>0.1455405376324959</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03700191973529476</v>
+        <v>0.04474152071752201</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2004130558.504415</v>
+        <v>1733317082.978804</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1253744744410674</v>
+        <v>0.09095555716815772</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03540279090055052</v>
+        <v>0.02440165905305205</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1302756373.000993</v>
+        <v>1067798588.500473</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09346657513820379</v>
+        <v>0.07220722362076275</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04702864293372393</v>
+        <v>0.03546693233898343</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1655968002.99846</v>
+        <v>1483485404.539664</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1138877351627899</v>
+        <v>0.1103319989913681</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03280340493474539</v>
+        <v>0.03103172789966317</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2853812059.571933</v>
+        <v>2717739214.76897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1669665076107202</v>
+        <v>0.174456834281344</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05333794402336844</v>
+        <v>0.05370956430179199</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1425827585.057947</v>
+        <v>1251468200.007618</v>
       </c>
       <c r="F34" t="n">
-        <v>0.115758592482082</v>
+        <v>0.09648391311346027</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02240432369749036</v>
+        <v>0.02128600306439088</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>898492644.811139</v>
+        <v>1311782439.473004</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08933911246453516</v>
+        <v>0.08665379040645822</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03463548257842194</v>
+        <v>0.04323682119862716</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2990858721.682787</v>
+        <v>2207387130.838649</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1149713020155704</v>
+        <v>0.1549234043443591</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02893360000514374</v>
+        <v>0.02057602829691625</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2357120919.319157</v>
+        <v>2517377644.227448</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07196310779125917</v>
+        <v>0.09983376626263055</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0401699205188734</v>
+        <v>0.03160442123453788</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1974800642.665669</v>
+        <v>2056178352.145802</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08414412087736944</v>
+        <v>0.1189972587185438</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02648923023922393</v>
+        <v>0.03019696794892973</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1739395010.018188</v>
+        <v>1961427323.757692</v>
       </c>
       <c r="F39" t="n">
-        <v>0.116774698801319</v>
+        <v>0.1726399451105669</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03049921016731104</v>
+        <v>0.02282896518453032</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1330727277.26284</v>
+        <v>1737948234.521995</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1360470886385671</v>
+        <v>0.1426546988873748</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0385632695674218</v>
+        <v>0.04201561290245893</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2365580200.642964</v>
+        <v>2151038731.841545</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1215661424585379</v>
+        <v>0.1070333511862561</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0409295113294895</v>
+        <v>0.0294842064273219</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3788284555.492577</v>
+        <v>3494956686.866254</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1142659129495039</v>
+        <v>0.1057623577136388</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04632398104373054</v>
+        <v>0.04666382738583422</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2697858103.266569</v>
+        <v>1891990674.006136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1870556036627048</v>
+        <v>0.1583322102456531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02225856287951253</v>
+        <v>0.02396731581041732</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2249206389.172122</v>
+        <v>1639881007.415016</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09464187493283355</v>
+        <v>0.1030642776056047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0242833054506487</v>
+        <v>0.0240013454912608</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1786244008.987852</v>
+        <v>1903371286.063902</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1940940544815113</v>
+        <v>0.192150049390418</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04215951290099385</v>
+        <v>0.05360874646131519</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5037055304.446462</v>
+        <v>5448334395.201535</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320813661554422</v>
+        <v>0.1335822571126218</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05269994779972607</v>
+        <v>0.04256854789223843</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4232107765.198637</v>
+        <v>4099492014.022719</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1864728429666309</v>
+        <v>0.1935154616505335</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03607896465488703</v>
+        <v>0.04973396303052902</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3628646597.364649</v>
+        <v>3974549626.153933</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07085520154311849</v>
+        <v>0.1094265619849481</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03662082672752267</v>
+        <v>0.02689701743684686</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1605929826.195333</v>
+        <v>1665922831.173232</v>
       </c>
       <c r="F49" t="n">
-        <v>0.183074252295591</v>
+        <v>0.1844879049475837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03661228679587081</v>
+        <v>0.04127252071872833</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2659142511.625111</v>
+        <v>3722548566.110341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.169624990425363</v>
+        <v>0.1401924122804309</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03636207390854797</v>
+        <v>0.04049070956092909</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1329600907.97345</v>
+        <v>930330664.3566893</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1810696759374565</v>
+        <v>0.1453975543926505</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04002967640496133</v>
+        <v>0.03614100557540456</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3848160245.950092</v>
+        <v>3321659056.093967</v>
       </c>
       <c r="F52" t="n">
-        <v>0.111005158408061</v>
+        <v>0.1290825287969188</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04841515082058056</v>
+        <v>0.05433549081824804</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2496028408.547348</v>
+        <v>3229154803.729429</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1436180940246131</v>
+        <v>0.1680786771499047</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0231601612118751</v>
+        <v>0.02915076358273307</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3264835425.082372</v>
+        <v>4112918687.393579</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1253215700273773</v>
+        <v>0.1043645219588198</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03704436284899885</v>
+        <v>0.05213871661750229</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3957753561.561429</v>
+        <v>4012113950.735888</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1431630326503251</v>
+        <v>0.1794756675613194</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03163191494600122</v>
+        <v>0.02354611391667346</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1844614605.702512</v>
+        <v>1828626560.117026</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1071401532955704</v>
+        <v>0.1137977272581707</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04410217758791922</v>
+        <v>0.03900235519996963</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3426051431.759685</v>
+        <v>4361385499.306084</v>
       </c>
       <c r="F57" t="n">
-        <v>0.162496881856786</v>
+        <v>0.1682990523168472</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02231150551657397</v>
+        <v>0.02714202087133078</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1675514928.212545</v>
+        <v>1847953176.470554</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2026802826086885</v>
+        <v>0.160393315450213</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03609096343127017</v>
+        <v>0.0256541372970391</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3474207623.610937</v>
+        <v>4211525309.290342</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1077790598136556</v>
+        <v>0.08071858563593319</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03235764895285274</v>
+        <v>0.03862922148726508</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2971971230.559342</v>
+        <v>2720196162.568166</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1630166942057752</v>
+        <v>0.1912916101388412</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03166134484635831</v>
+        <v>0.03276456722560445</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2829234446.956946</v>
+        <v>3095487255.389945</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1514699473531315</v>
+        <v>0.1141009664898123</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02770496965171486</v>
+        <v>0.0303112642449972</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1847333729.836583</v>
+        <v>1988203244.636105</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1368439809638635</v>
+        <v>0.1204435844686348</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04620399077288784</v>
+        <v>0.04459526332861719</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4082611543.376761</v>
+        <v>3990818750.341784</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09751567219302229</v>
+        <v>0.0753602186023494</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04018091143366902</v>
+        <v>0.04392447210975511</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4159676171.228356</v>
+        <v>4730082327.210356</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1880079230224851</v>
+        <v>0.1644218042728463</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03510484672024339</v>
+        <v>0.02814902663915705</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5631656347.145658</v>
+        <v>5267249210.359429</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1272036997716264</v>
+        <v>0.1110707728614094</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03007222621749453</v>
+        <v>0.03191607356935393</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4205512133.383419</v>
+        <v>5347855256.732982</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1536087242340797</v>
+        <v>0.104953160279083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03469462371336518</v>
+        <v>0.04684914408528831</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2444289692.005705</v>
+        <v>2819931675.222344</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08043093534590431</v>
+        <v>0.09790632538323225</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05044047241244402</v>
+        <v>0.03772856595687619</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5196381648.444495</v>
+        <v>5897739386.882926</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1019125659728707</v>
+        <v>0.1316020923455868</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04666329545152516</v>
+        <v>0.03271474604577797</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1505544874.46394</v>
+        <v>2105032669.662843</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1765753200125569</v>
+        <v>0.1826688256736819</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03775861286163185</v>
+        <v>0.0397043266795107</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3378497370.87556</v>
+        <v>2880064760.744637</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08870482380771098</v>
+        <v>0.08415966807870429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03203760336911226</v>
+        <v>0.0482824952452254</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5325605341.215235</v>
+        <v>4306674616.867623</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1724984603977676</v>
+        <v>0.153306216546582</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03247132740888773</v>
+        <v>0.03377561814782839</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1899534657.254645</v>
+        <v>2034564363.514005</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09642892671477891</v>
+        <v>0.08188240729937807</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04032304957711907</v>
+        <v>0.04553649949934314</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2674643291.917066</v>
+        <v>2679328949.506319</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08430358196875522</v>
+        <v>0.0721298296235619</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04693918300111916</v>
+        <v>0.03759462474802936</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2972100371.926812</v>
+        <v>3833754172.650344</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1128494301047835</v>
+        <v>0.1442521560917756</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03228255967818238</v>
+        <v>0.03166577274887113</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1679843488.215389</v>
+        <v>1712270416.551713</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1069552139226353</v>
+        <v>0.1603843100237335</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03448873359003651</v>
+        <v>0.03477300027962311</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5031038941.661293</v>
+        <v>5104316040.636497</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1184270462788524</v>
+        <v>0.1217270589147999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02480774237014397</v>
+        <v>0.02109582534252941</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1417334417.513806</v>
+        <v>2294744530.806506</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566201854147934</v>
+        <v>0.1737251163689423</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02698401256339109</v>
+        <v>0.0217280148290148</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3500797955.327858</v>
+        <v>3684973724.497751</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09963826160627468</v>
+        <v>0.1324097537835705</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05455092380210744</v>
+        <v>0.05259506650879801</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1645820485.249633</v>
+        <v>1784446964.106116</v>
       </c>
       <c r="F79" t="n">
-        <v>0.139893736993234</v>
+        <v>0.1530886424047985</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03434036772173102</v>
+        <v>0.02645083039064068</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4570353218.367522</v>
+        <v>5281089511.615269</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1029386167036336</v>
+        <v>0.07909882055632701</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03607875029604889</v>
+        <v>0.02534495129988058</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4411266481.635653</v>
+        <v>4530183696.265667</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1083796293004232</v>
+        <v>0.1047999135303127</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02597662961707223</v>
+        <v>0.02269694664219616</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4546389865.511965</v>
+        <v>5622929654.269975</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1582113052371382</v>
+        <v>0.1438471285603968</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01849034584205352</v>
+        <v>0.02455775178245961</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2018460470.274682</v>
+        <v>2200766680.431145</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1568457138283155</v>
+        <v>0.1308538066179962</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03238141355486102</v>
+        <v>0.03831911839300027</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2040709940.321276</v>
+        <v>2032494519.786688</v>
       </c>
       <c r="F84" t="n">
-        <v>0.114037138299903</v>
+        <v>0.08947685094016829</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03940704360994871</v>
+        <v>0.04161803224301119</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2626202856.017182</v>
+        <v>3579580959.808465</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1321533945988893</v>
+        <v>0.1181034994015149</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04404641033583657</v>
+        <v>0.04392455174087374</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2355061186.127444</v>
+        <v>2733267891.564839</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1359366133281863</v>
+        <v>0.1483824351907868</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01920451349547672</v>
+        <v>0.02526294659853992</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1027654389.019861</v>
+        <v>914329289.7471696</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1493650621780861</v>
+        <v>0.1520071740374199</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04164555532142668</v>
+        <v>0.03212357776084021</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3148734563.982195</v>
+        <v>2694493604.948292</v>
       </c>
       <c r="F88" t="n">
-        <v>0.172398065375025</v>
+        <v>0.1229329698598353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03462224652637708</v>
+        <v>0.03557847318643178</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2871249412.1666</v>
+        <v>2171136295.897738</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1483827505840426</v>
+        <v>0.1078492299297917</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02700259200058474</v>
+        <v>0.03650890089480026</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1465376964.76456</v>
+        <v>1955854272.197857</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1227390355661764</v>
+        <v>0.09181748132010158</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03879828744348748</v>
+        <v>0.03847163977040306</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1382571138.116147</v>
+        <v>1956295585.498295</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1275195930152601</v>
+        <v>0.141946437990521</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03886670481374039</v>
+        <v>0.05709977080165556</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2008162078.238697</v>
+        <v>2348825134.816426</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001348372259675</v>
+        <v>0.1091955742413737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03641353553453609</v>
+        <v>0.03469961218387661</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4499108945.984938</v>
+        <v>4472705758.941367</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1175649080701383</v>
+        <v>0.1207808363942072</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05130660601356211</v>
+        <v>0.0436745675772551</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1918949472.157691</v>
+        <v>1979160861.627444</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1298375110666623</v>
+        <v>0.1465429402748855</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03073808955698929</v>
+        <v>0.02759665660778413</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2273986857.351674</v>
+        <v>2911996604.216907</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1026995046940398</v>
+        <v>0.1092166633647375</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03195781240313014</v>
+        <v>0.04439043474882957</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2148644540.006935</v>
+        <v>1528073923.534146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1009084268430251</v>
+        <v>0.0897223648575186</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03978943210460083</v>
+        <v>0.03159771054312971</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5151258015.111841</v>
+        <v>4348036948.786479</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1268544440607828</v>
+        <v>0.1123398545684366</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02415836810816589</v>
+        <v>0.02838505143880033</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2549078201.943204</v>
+        <v>2985880553.374978</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1007595529164685</v>
+        <v>0.1025815122264543</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02690090989708548</v>
+        <v>0.01997045216663447</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2067290726.277666</v>
+        <v>2219244648.605789</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1159697278638514</v>
+        <v>0.1247425521179126</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03152657356552007</v>
+        <v>0.03532427038803585</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3144694981.694415</v>
+        <v>3878481605.741304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1188325233432572</v>
+        <v>0.1693970301563831</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01792183724518845</v>
+        <v>0.02285729970480023</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3317087356.562951</v>
+        <v>2517583800.492339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2051238681561066</v>
+        <v>0.2017841402574825</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04413154393896524</v>
+        <v>0.0482519862755967</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_47.xlsx
+++ b/output/fit_clients/fit_round_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2436228896.235429</v>
+        <v>2468737802.600697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108569897889034</v>
+        <v>0.08826083815146409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03855605592929206</v>
+        <v>0.0422576645069574</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1631247848.296103</v>
+        <v>1793626271.248818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1263040659701563</v>
+        <v>0.1694780184747055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04208000510327983</v>
+        <v>0.05019601144843748</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5020410218.568992</v>
+        <v>3975314897.340336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146777715001721</v>
+        <v>0.1016851106658185</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02568148058572045</v>
+        <v>0.03783210298565097</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3875178872.318382</v>
+        <v>2597331769.84937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09907013163487786</v>
+        <v>0.105908355286885</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03075444619610524</v>
+        <v>0.04540312506535116</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2846920014.839011</v>
+        <v>2046378137.779706</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1376484332705932</v>
+        <v>0.1246287543788322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04015853440018073</v>
+        <v>0.04465317580960965</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2355616224.09397</v>
+        <v>2072017839.312902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06465220966646174</v>
+        <v>0.08505300913447129</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03210986472397437</v>
+        <v>0.03845772315170245</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2681071727.721304</v>
+        <v>3419018358.443528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1571774907812533</v>
+        <v>0.2117437992328641</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03347214139815323</v>
+        <v>0.03083290893791115</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1458332329.998071</v>
+        <v>2047057787.525692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.159562938143241</v>
+        <v>0.1279079539630669</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02260491186083485</v>
+        <v>0.02852955116385941</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4449072903.917602</v>
+        <v>5523559568.02158</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2109208612939066</v>
+        <v>0.1339846205747396</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03494052352478051</v>
+        <v>0.05084853594308913</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>43</v>
+      </c>
+      <c r="J10" t="n">
+        <v>47</v>
+      </c>
+      <c r="K10" t="n">
+        <v>234.03400466304</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2880889449.763086</v>
+        <v>3105792612.892069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1277482510979431</v>
+        <v>0.1205057263955464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03226819923924436</v>
+        <v>0.0426691397271904</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>46</v>
+      </c>
+      <c r="K11" t="n">
+        <v>132.6510876908935</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2932391060.47017</v>
+        <v>3317454533.949896</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1393774812574347</v>
+        <v>0.1263862361106285</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03369907681471736</v>
+        <v>0.04348190556148133</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4581378471.393099</v>
+        <v>3386578442.741805</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07748651972942158</v>
+        <v>0.08473848363523127</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02985204386725839</v>
+        <v>0.03094622627168284</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>46</v>
+      </c>
+      <c r="K13" t="n">
+        <v>145.258221891925</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3870983465.276162</v>
+        <v>3744297836.464335</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1844339336186012</v>
+        <v>0.1484380281891388</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02805012648888432</v>
+        <v>0.03545075689696783</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541436750.226338</v>
+        <v>1654106297.993254</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1074812396551705</v>
+        <v>0.1006368238999823</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03753580719732172</v>
+        <v>0.03865644692274967</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2034750582.540686</v>
+        <v>1852139459.316446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08220694123531175</v>
+        <v>0.1104116624996149</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04812344744334995</v>
+        <v>0.04672199971040587</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5286655762.796653</v>
+        <v>5212953154.836025</v>
       </c>
       <c r="F17" t="n">
-        <v>0.118489002720177</v>
+        <v>0.1089594431891093</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05228746577332058</v>
+        <v>0.04700465547785421</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2769680992.349159</v>
+        <v>3849528502.724236</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1807061445554897</v>
+        <v>0.1643125692262409</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02284914230779709</v>
+        <v>0.02799350214882729</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>46</v>
+      </c>
+      <c r="K18" t="n">
+        <v>184.7042490942188</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1376921429.711207</v>
+        <v>1366389014.092668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1869378384167201</v>
+        <v>0.1435558185311497</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01907768408417598</v>
+        <v>0.02439967355611727</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1739625136.385025</v>
+        <v>2414678225.121097</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1093375605801022</v>
+        <v>0.1142456371437937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02559342911313748</v>
+        <v>0.01968878345184431</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2280140188.454916</v>
+        <v>2206917473.549289</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06426417980046463</v>
+        <v>0.06778036848244406</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03615534998654368</v>
+        <v>0.04195958246244232</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2432076890.787958</v>
+        <v>2511234053.743295</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1119905953535135</v>
+        <v>0.1282133504522072</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04675206274784873</v>
+        <v>0.0503690280933996</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="n">
+        <v>70.05462732343538</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1460444550.638894</v>
+        <v>1446282409.837382</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1644105584538976</v>
+        <v>0.1797935942832307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04374304715221093</v>
+        <v>0.03663628678268664</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3542236333.20637</v>
+        <v>3255269338.881589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1377115368355658</v>
+        <v>0.122051548695377</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02340859883569573</v>
+        <v>0.02653245346017181</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="n">
+        <v>124.7861450416121</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1316727396.140586</v>
+        <v>1064102981.367135</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1040713712874291</v>
+        <v>0.08266934621729316</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02264603587720663</v>
+        <v>0.02773928454610254</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>983091857.3434496</v>
+        <v>1455006082.371796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1074639050460645</v>
+        <v>0.1073343528628759</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03610187775758012</v>
+        <v>0.03036036642466175</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4373535918.327508</v>
+        <v>4386884835.131218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1562075970694612</v>
+        <v>0.1055260443237862</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02718056042787571</v>
+        <v>0.02077689358069172</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>47</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3213054556.585763</v>
+        <v>3774524064.245365</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1022434233521392</v>
+        <v>0.1037190780443295</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03523599005098509</v>
+        <v>0.04647251259112795</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>47</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5048843071.499064</v>
+        <v>4300974506.549367</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1455405376324959</v>
+        <v>0.1145222043299714</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04474152071752201</v>
+        <v>0.03690464050355734</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>47</v>
+      </c>
+      <c r="K29" t="n">
+        <v>239.2631937255625</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1733317082.978804</v>
+        <v>2174580859.702668</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09095555716815772</v>
+        <v>0.09001260387598622</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02440165905305205</v>
+        <v>0.03440837703159723</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1067798588.500473</v>
+        <v>1318212611.289194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07220722362076275</v>
+        <v>0.09570625326311689</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03546693233898343</v>
+        <v>0.03168954343336462</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1483485404.539664</v>
+        <v>1570139086.584519</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1103319989913681</v>
+        <v>0.07424602750721954</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03103172789966317</v>
+        <v>0.02729215774530128</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2717739214.76897</v>
+        <v>2916189986.891762</v>
       </c>
       <c r="F33" t="n">
-        <v>0.174456834281344</v>
+        <v>0.1429257532841703</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05370956430179199</v>
+        <v>0.04001212441912822</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1251468200.007618</v>
+        <v>1316693121.193432</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09648391311346027</v>
+        <v>0.08264184871473275</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02128600306439088</v>
+        <v>0.01958383391524338</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1311782439.473004</v>
+        <v>1080732471.966894</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08665379040645822</v>
+        <v>0.1007002150601274</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04323682119862716</v>
+        <v>0.04470835225125195</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2207387130.838649</v>
+        <v>2792288502.228481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1549234043443591</v>
+        <v>0.1174566117987614</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02057602829691625</v>
+        <v>0.02063197318850385</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2517377644.227448</v>
+        <v>1799653573.540366</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09983376626263055</v>
+        <v>0.08817437102666484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03160442123453788</v>
+        <v>0.04125048957788818</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056178352.145802</v>
+        <v>1489575709.855595</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1189972587185438</v>
+        <v>0.1117250155430287</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03019696794892973</v>
+        <v>0.03436468663878306</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1961427323.757692</v>
+        <v>1947139458.686146</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1726399451105669</v>
+        <v>0.192366964604801</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02282896518453032</v>
+        <v>0.02778419270031266</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1737948234.521995</v>
+        <v>1586584438.53094</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1426546988873748</v>
+        <v>0.1594744697650932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04201561290245893</v>
+        <v>0.03747287478100984</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2151038731.841545</v>
+        <v>2361631158.135351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1070333511862561</v>
+        <v>0.1115680951978446</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0294842064273219</v>
+        <v>0.02930949296930521</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3494956686.866254</v>
+        <v>3020435991.251198</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1057623577136388</v>
+        <v>0.09522277093434121</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04666382738583422</v>
+        <v>0.03522451795097221</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1891990674.006136</v>
+        <v>2082487457.278537</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1583322102456531</v>
+        <v>0.1981786507952011</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396731581041732</v>
+        <v>0.02499861898526072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1639881007.415016</v>
+        <v>1722055702.402787</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030642776056047</v>
+        <v>0.09394190546339924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0240013454912608</v>
+        <v>0.02643523319273943</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1903371286.063902</v>
+        <v>1581057481.466064</v>
       </c>
       <c r="F45" t="n">
-        <v>0.192150049390418</v>
+        <v>0.1891547420947605</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05360874646131519</v>
+        <v>0.04166447239905517</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5448334395.201535</v>
+        <v>5629188464.149981</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1335822571126218</v>
+        <v>0.157079441803488</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04256854789223843</v>
+        <v>0.04706210038035656</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>46</v>
+      </c>
+      <c r="K46" t="n">
+        <v>208.8284745386528</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4099492014.022719</v>
+        <v>4034253762.957424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1935154616505335</v>
+        <v>0.1796874968673099</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04973396303052902</v>
+        <v>0.04978993336331041</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>46</v>
+      </c>
+      <c r="K47" t="n">
+        <v>178.5442514622167</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3974549626.153933</v>
+        <v>2892367513.306661</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1094265619849481</v>
+        <v>0.0712684526095375</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02689701743684686</v>
+        <v>0.03390586343453533</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1665922831.173232</v>
+        <v>1325943411.157929</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1844879049475837</v>
+        <v>0.1811135649131996</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04127252071872833</v>
+        <v>0.03585227645857789</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3722548566.110341</v>
+        <v>3830848569.340371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1401924122804309</v>
+        <v>0.1325136635212766</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04049070956092909</v>
+        <v>0.0448024902148651</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46</v>
+      </c>
+      <c r="K50" t="n">
+        <v>186.1191545828969</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>930330664.3566893</v>
+        <v>1380268539.470753</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1453975543926505</v>
+        <v>0.1953655605416293</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03614100557540456</v>
+        <v>0.03551349060483184</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3321659056.093967</v>
+        <v>4267268615.333214</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290825287969188</v>
+        <v>0.1143400723766099</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05433549081824804</v>
+        <v>0.05197985548832957</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36</v>
+      </c>
+      <c r="J52" t="n">
+        <v>47</v>
+      </c>
+      <c r="K52" t="n">
+        <v>224.3539736805888</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3229154803.729429</v>
+        <v>3205838822.180574</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1680786771499047</v>
+        <v>0.1894187683648725</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02915076358273307</v>
+        <v>0.02690948170338452</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4112918687.393579</v>
+        <v>4842084346.154262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1043645219588198</v>
+        <v>0.1409580097283747</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05213871661750229</v>
+        <v>0.03755272861670259</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>47</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4012113950.735888</v>
+        <v>4836003967.664958</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794756675613194</v>
+        <v>0.1450623761897845</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02354611391667346</v>
+        <v>0.02031850275930755</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1828626560.117026</v>
+        <v>1348226064.881863</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1137977272581707</v>
+        <v>0.1236292530696823</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03900235519996963</v>
+        <v>0.04635003059850189</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4361385499.306084</v>
+        <v>3486844463.460864</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1682990523168472</v>
+        <v>0.1145805304919649</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02714202087133078</v>
+        <v>0.02298927298403988</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>45</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847953176.470554</v>
+        <v>1599051903.42783</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160393315450213</v>
+        <v>0.1838757466443091</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0256541372970391</v>
+        <v>0.03013629328754123</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4211525309.290342</v>
+        <v>3840221742.080965</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08071858563593319</v>
+        <v>0.09567541423450938</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03862922148726508</v>
+        <v>0.03661218009210813</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" t="n">
+        <v>47</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2720196162.568166</v>
+        <v>3645064255.439601</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1912916101388412</v>
+        <v>0.1900401926528571</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03276456722560445</v>
+        <v>0.02428983509993454</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>47</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3095487255.389945</v>
+        <v>2536361773.146599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1141009664898123</v>
+        <v>0.1153229418296035</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0303112642449972</v>
+        <v>0.02515717331558899</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1988203244.636105</v>
+        <v>1736779440.865537</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1204435844686348</v>
+        <v>0.1359461599484892</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04459526332861719</v>
+        <v>0.04972884909124839</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3990818750.341784</v>
+        <v>4829353837.118404</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0753602186023494</v>
+        <v>0.09233403703498877</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04392447210975511</v>
+        <v>0.03400295297876652</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>23</v>
+      </c>
+      <c r="J63" t="n">
+        <v>46</v>
+      </c>
+      <c r="K63" t="n">
+        <v>191.7835515998732</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4730082327.210356</v>
+        <v>3599233638.544531</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1644218042728463</v>
+        <v>0.186136517257242</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02814902663915705</v>
+        <v>0.03202664025511284</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>47</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5267249210.359429</v>
+        <v>4734953069.483972</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1110707728614094</v>
+        <v>0.1625910873143714</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03191607356935393</v>
+        <v>0.02339328257502959</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>39</v>
+      </c>
+      <c r="J65" t="n">
+        <v>47</v>
+      </c>
+      <c r="K65" t="n">
+        <v>210.6028321459476</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5347855256.732982</v>
+        <v>5333718857.001155</v>
       </c>
       <c r="F66" t="n">
-        <v>0.104953160279083</v>
+        <v>0.09847921561276266</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04684914408528831</v>
+        <v>0.03160843228493777</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>47</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2819931675.222344</v>
+        <v>3176147863.729007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09790632538323225</v>
+        <v>0.09980450684150692</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03772856595687619</v>
+        <v>0.04761897969882716</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5897739386.882926</v>
+        <v>5493617694.768416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1316020923455868</v>
+        <v>0.1207746453299708</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03271474604577797</v>
+        <v>0.05106633172973846</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>47</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2105032669.662843</v>
+        <v>2077271381.782586</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1826688256736819</v>
+        <v>0.1822184482026481</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0397043266795107</v>
+        <v>0.04778947359033427</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2880064760.744637</v>
+        <v>2804546926.298051</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08415966807870429</v>
+        <v>0.1025152038110491</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0482824952452254</v>
+        <v>0.04119032927497515</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="n">
+        <v>92.19605414647441</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4306674616.867623</v>
+        <v>4351076595.242734</v>
       </c>
       <c r="F71" t="n">
-        <v>0.153306216546582</v>
+        <v>0.1341713393584168</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03377561814782839</v>
+        <v>0.03247414600141533</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>38</v>
+      </c>
+      <c r="J71" t="n">
+        <v>47</v>
+      </c>
+      <c r="K71" t="n">
+        <v>211.6912615922769</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2034564363.514005</v>
+        <v>1399419411.557907</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08188240729937807</v>
+        <v>0.07601072566462011</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04553649949934314</v>
+        <v>0.04697397888466472</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2679328949.506319</v>
+        <v>3591691827.888357</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0721298296235619</v>
+        <v>0.09972394901933861</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03759462474802936</v>
+        <v>0.04150223002733176</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3833754172.650344</v>
+        <v>2424995218.794886</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1442521560917756</v>
+        <v>0.1298642633311894</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03166577274887113</v>
+        <v>0.02729597797474229</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1712270416.551713</v>
+        <v>2108036114.983651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1603843100237335</v>
+        <v>0.1618036636657161</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03477300027962311</v>
+        <v>0.02286505086427693</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5104316040.636497</v>
+        <v>3445451983.653468</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1217270589147999</v>
+        <v>0.0936117944688063</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02109582534252941</v>
+        <v>0.0284192567690319</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2294744530.806506</v>
+        <v>1774914572.269614</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1737251163689423</v>
+        <v>0.1138688508671978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0217280148290148</v>
+        <v>0.02501697267224937</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3684973724.497751</v>
+        <v>4210512757.768693</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1324097537835705</v>
+        <v>0.1196350749931563</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05259506650879801</v>
+        <v>0.039491326310459</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>46</v>
+      </c>
+      <c r="K78" t="n">
+        <v>208.8756416934476</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1784446964.106116</v>
+        <v>1599489167.530192</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1530886424047985</v>
+        <v>0.1650452161262734</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02645083039064068</v>
+        <v>0.03081577769400537</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5281089511.615269</v>
+        <v>4909611387.6136</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07909882055632701</v>
+        <v>0.08678287987904673</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02534495129988058</v>
+        <v>0.03607031458126844</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>22</v>
+      </c>
+      <c r="J80" t="n">
+        <v>47</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4530183696.265667</v>
+        <v>4052012058.097957</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1047999135303127</v>
+        <v>0.09070768310420961</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02269694664219616</v>
+        <v>0.03165223389473069</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21</v>
+      </c>
+      <c r="J81" t="n">
+        <v>46</v>
+      </c>
+      <c r="K81" t="n">
+        <v>167.9030288436644</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5622929654.269975</v>
+        <v>3705708329.92688</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1438471285603968</v>
+        <v>0.2078612652305241</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02455775178245961</v>
+        <v>0.02779729349450365</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>47</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2200766680.431145</v>
+        <v>1657955224.955239</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1308538066179962</v>
+        <v>0.1493809356449395</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03831911839300027</v>
+        <v>0.03060245508956285</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2032494519.786688</v>
+        <v>1772681095.737586</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08947685094016829</v>
+        <v>0.1152392514581246</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04161803224301119</v>
+        <v>0.03357286808328144</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3579580959.808465</v>
+        <v>3063020844.673658</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1181034994015149</v>
+        <v>0.1803615253085879</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04392455174087374</v>
+        <v>0.04968774798171073</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2733267891.564839</v>
+        <v>1864657738.585744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1483824351907868</v>
+        <v>0.1346207142546622</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02526294659853992</v>
+        <v>0.01926185669592186</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>914329289.7471696</v>
+        <v>1044262219.957332</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1520071740374199</v>
+        <v>0.1745249723291443</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03212357776084021</v>
+        <v>0.03477106208003792</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2694493604.948292</v>
+        <v>2348525087.029223</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1229329698598353</v>
+        <v>0.1750107920077489</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03557847318643178</v>
+        <v>0.02918229906956513</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="n">
+        <v>74.29712166947918</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2171136295.897738</v>
+        <v>3371816988.333299</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1078492299297917</v>
+        <v>0.09946477686793649</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03650890089480026</v>
+        <v>0.03627170142308667</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1955854272.197857</v>
+        <v>1483346701.30155</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09181748132010158</v>
+        <v>0.1153016629203016</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03847163977040306</v>
+        <v>0.04496266224215103</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1956295585.498295</v>
+        <v>1314622794.010363</v>
       </c>
       <c r="F91" t="n">
-        <v>0.141946437990521</v>
+        <v>0.1296435540604771</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05709977080165556</v>
+        <v>0.04298495526707559</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2348825134.816426</v>
+        <v>2805290206.586698</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1091955742413737</v>
+        <v>0.1041422911297001</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03469961218387661</v>
+        <v>0.03679485935565106</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4472705758.941367</v>
+        <v>4656612962.178843</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1207808363942072</v>
+        <v>0.112229055384197</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0436745675772551</v>
+        <v>0.03579601326610564</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>46</v>
+      </c>
+      <c r="K93" t="n">
+        <v>194.0357316516892</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1979160861.627444</v>
+        <v>1691211169.766828</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1465429402748855</v>
+        <v>0.1526290470419428</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02759665660778413</v>
+        <v>0.03883258898524653</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2911996604.216907</v>
+        <v>3005251572.767835</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092166633647375</v>
+        <v>0.09010808157129716</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04439043474882957</v>
+        <v>0.03420833247215651</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1528073923.534146</v>
+        <v>2343955485.622334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0897223648575186</v>
+        <v>0.1116162897513648</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03159771054312971</v>
+        <v>0.03867069769834687</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4348036948.786479</v>
+        <v>5129982280.815427</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1123398545684366</v>
+        <v>0.150147637552794</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02838505143880033</v>
+        <v>0.02194681975655526</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>46</v>
+      </c>
+      <c r="K97" t="n">
+        <v>206.9962013188796</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2985880553.374978</v>
+        <v>3005508835.923453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1025815122264543</v>
+        <v>0.1060944984254804</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01997045216663447</v>
+        <v>0.02477529354283677</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2219244648.605789</v>
+        <v>2398416558.384462</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1247425521179126</v>
+        <v>0.1449247396816977</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03532427038803585</v>
+        <v>0.03167896450404038</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3878481605.741304</v>
+        <v>3772496734.682176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1693970301563831</v>
+        <v>0.1770367095543567</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02285729970480023</v>
+        <v>0.02144533869272613</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>47</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2517583800.492339</v>
+        <v>2774618742.023474</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2017841402574825</v>
+        <v>0.1672975773656746</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0482519862755967</v>
+        <v>0.05049023924223442</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
